--- a/Proyecto 1 - Analisis de la Adopcion del Transporte Publico en Los Angeles/Data/Resultados/LA Metro Ridership by Year.xlsx
+++ b/Proyecto 1 - Analisis de la Adopcion del Transporte Publico en Los Angeles/Data/Resultados/LA Metro Ridership by Year.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renat\OneDrive\Escritorio\Pro1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renat\Documents\portfolios\xzoremx.github.io\Proyecto 1 - Analisis de la Adopcion del Transporte Publico en Los Angeles\Data\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3909666-512D-48D2-976F-0E76EDEE1EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CDE396-075C-459A-BD1C-118FBD684021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F985B313-AF41-41A5-B144-F16655A40A63}"/>
   </bookViews>
@@ -19,6 +19,9 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
